--- a/Banco de Dados de PADS/SetoresRelevantes.xlsx
+++ b/Banco de Dados de PADS/SetoresRelevantes.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="27">
   <si>
     <t>SETORES RELEVANTES GLOBAL</t>
   </si>
@@ -85,6 +85,18 @@
   </si>
   <si>
     <t>COGSA</t>
+  </si>
+  <si>
+    <t>Secretaria de Gestão de Serviços</t>
+  </si>
+  <si>
+    <t>Coordenadoria de InfraEstrutura Predial</t>
+  </si>
+  <si>
+    <t>Coordenadoria de Segurança , Transporte e Apoio Administrativo</t>
+  </si>
+  <si>
+    <t>SECRETARIA/COORDENADORIA RESP</t>
   </si>
 </sst>
 </file>
@@ -423,130 +435,200 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A23"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="E1" sqref="E1:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="1" max="1" width="26.5" customWidth="1"/>
+    <col min="2" max="2" width="50.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Banco de Dados de PADS/SetoresRelevantes.xlsx
+++ b/Banco de Dados de PADS/SetoresRelevantes.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Plan2" sheetId="2" r:id="rId2"/>
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -132,8 +132,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -438,7 +439,7 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E3"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -456,178 +457,178 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="1" t="s">
         <v>25</v>
       </c>
     </row>

--- a/Banco de Dados de PADS/SetoresRelevantes.xlsx
+++ b/Banco de Dados de PADS/SetoresRelevantes.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13395"/>
   </bookViews>
   <sheets>
-    <sheet name="Plan1" sheetId="1" r:id="rId1"/>
-    <sheet name="Plan2" sheetId="2" r:id="rId2"/>
+    <sheet name="Siglas Completas(Atngias+Novas)" sheetId="1" r:id="rId1"/>
+    <sheet name="PADS_SECGS" sheetId="2" r:id="rId2"/>
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="28">
   <si>
     <t>SETORES RELEVANTES GLOBAL</t>
   </si>
@@ -97,13 +97,16 @@
   </si>
   <si>
     <t>SECRETARIA/COORDENADORIA RESP</t>
+  </si>
+  <si>
+    <t>SETORES RETIRADOS DA PLANILHA: PADS_SECGS_Horas.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,13 +114,40 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -132,9 +162,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -145,14 +178,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -190,9 +226,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -227,7 +263,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -262,7 +298,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -438,14 +474,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.5" customWidth="1"/>
-    <col min="2" max="2" width="50.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -457,178 +493,178 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="2" t="s">
         <v>25</v>
       </c>
     </row>
@@ -639,13 +675,77 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Banco de Dados de PADS/SetoresRelevantes.xlsx
+++ b/Banco de Dados de PADS/SetoresRelevantes.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="41">
   <si>
     <t>SETORES RELEVANTES GLOBAL</t>
   </si>
@@ -100,13 +100,52 @@
   </si>
   <si>
     <t>SETORES RETIRADOS DA PLANILHA: PADS_SECGS_Horas.xlsx</t>
+  </si>
+  <si>
+    <t>CIP = CAA - Coordenadoria de Apoio Administrativo</t>
+  </si>
+  <si>
+    <t>SMIC =SMOEP -Seção de Manutenção, Obras de Eng, e Projetos;</t>
+  </si>
+  <si>
+    <t>SMOEP = SMOP - Seção de Mantuenção, Obras e Projetos</t>
+  </si>
+  <si>
+    <t>SMOP = SMIC - Seção de Manut dos Imóveis da Capital</t>
+  </si>
+  <si>
+    <t>SMCI = SMOI - Sç Manut e Obras do Interior;</t>
+  </si>
+  <si>
+    <t>SMOI = SMIN - Seção de Manut dos Imóveis do Interior</t>
+  </si>
+  <si>
+    <t>SAPRE = SAPRE</t>
+  </si>
+  <si>
+    <t>SGACI = Sç Gestão Adm dos Cartórios do Interior = SAFI - Sç Adm Fóruns do Interior = SAPRE - Sç Adm Predial</t>
+  </si>
+  <si>
+    <t>ASSISEG - Assistência de Segurança = SESEG - Seção de Segurança</t>
+  </si>
+  <si>
+    <t>SST = Seção de Segurança e TRansporte = ST - Seção de Transporte</t>
+  </si>
+  <si>
+    <t>SMI - Seção de Mecanografia e Impressão = ASG - Assist de Serviços Gráficos</t>
+  </si>
+  <si>
+    <t>OK CORRIGIDO BANCO DE DADOS</t>
+  </si>
+  <si>
+    <t>SIGLAS CORRESPONDENTES</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,6 +161,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF3366FF"/>
+      <name val="Garamond"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF00B050"/>
+      <name val="Garamond"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -162,12 +213,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -186,9 +243,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Escritório">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -226,7 +283,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Escritório">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -298,7 +355,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Escritório">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -472,27 +529,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="59.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -500,7 +561,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -508,15 +569,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -524,63 +588,84 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
@@ -588,39 +673,45 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
@@ -628,39 +719,45 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
@@ -668,8 +765,97 @@
         <v>25</v>
       </c>
     </row>
+    <row r="27" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="B27" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="B28" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="B29" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="B30" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B31" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="B32" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B33" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="B34" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="B35" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="B36" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="B37" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -678,7 +864,7 @@
   <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A12"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Banco de Dados de PADS/SetoresRelevantes.xlsx
+++ b/Banco de Dados de PADS/SetoresRelevantes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13395"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13395"/>
   </bookViews>
   <sheets>
     <sheet name="Siglas Completas(Atngias+Novas)" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="41">
   <si>
     <t>SETORES RELEVANTES GLOBAL</t>
   </si>
@@ -531,8 +531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:C23"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -594,9 +594,6 @@
       </c>
       <c r="B6" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
